--- a/Dataset/s_wants_subject.xlsx
+++ b/Dataset/s_wants_subject.xlsx
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -500,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -508,6 +508,30 @@
         <v>4</v>
       </c>
       <c r="B13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
         <v>1</v>
       </c>
     </row>
